--- a/biology/Botanique/Eriocaulon/Eriocaulon.xlsx
+++ b/biology/Botanique/Eriocaulon/Eriocaulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocaulon est un genre de plantes herbacées vivaces ou annuelles, de la famille des Eriocaulaceae. Ce sont en général des plantes poussant au plein soleil dans des sols humides et acides ou croissant dans les milieux humides.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes herbacées annuelles ou vivaces, souvent cespiteuses ou acaulescentes. Racines spongieuses, les plus larges non ramifiées. Tiges courtes, rarement ramifiée. Les feuilles sont étroites à nervures parallèles, disposées en rosettes[2].
-La hampe florale est simple et munie à sa base d'une bractée engainante. La capitules sont laineux, soit blancs, gris ou noirs. Les fleurs mâles comptent deux à trois sépales allongés et une fleur tubulaire bilobée ou trilobée. Les fleurs femelles portent deux à trois pétales étroits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes herbacées annuelles ou vivaces, souvent cespiteuses ou acaulescentes. Racines spongieuses, les plus larges non ramifiées. Tiges courtes, rarement ramifiée. Les feuilles sont étroites à nervures parallèles, disposées en rosettes.
+La hampe florale est simple et munie à sa base d'une bractée engainante. La capitules sont laineux, soit blancs, gris ou noirs. Les fleurs mâles comptent deux à trois sépales allongés et une fleur tubulaire bilobée ou trilobée. Les fleurs femelles portent deux à trois pétales étroits.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Eriocaulon compte entre 200 et 400 espèces (dont une dizaine nord-américaines), selon les sources[3].
-Selon Catalogue of Life                                   (24 septembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Eriocaulon compte entre 200 et 400 espèces (dont une dizaine nord-américaines), selon les sources.
+Selon Catalogue of Life                                   (24 septembre 2017) :
 Eriocaulon abyssinicum Hochst.
 Eriocaulon achiton Körn.
 Eriocaulon acutibracteatum W.L.Ma
@@ -1027,7 +1043,7 @@
 Eriocaulon zollingerianoides Z.X.Zhang
 Eriocaulon zollingerianum Körn.
 Eriocaulon zyotanii Satake
-Selon GRIN            (24 septembre 2017)[5] :
+Selon GRIN            (24 septembre 2017) :
 Eriocaulon aquaticum (Hill) Druce
 Eriocaulon australe R. Br.
 Eriocaulon benthamii Kunth
@@ -1038,7 +1054,7 @@
 Eriocaulon palmeri Ruhland
 Eriocaulon parkeri B. L. Rob.
 Eriocaulon truncatum Buch.-Ham. ex Mart.
-Selon ITIS      (24 septembre 2017)[6] :
+Selon ITIS      (24 septembre 2017) :
 Eriocaulon aquaticum (Hill) Druce
 Eriocaulon benthamii Kunth
 Eriocaulon cinereum R. Br.
@@ -1053,7 +1069,7 @@
 Eriocaulon scariosum Sm.
 Eriocaulon texense Körn.
 Eriocaulon willdenovianum Moldenke
-Selon NCBI  (24 septembre 2017)[7] :
+Selon NCBI  (24 septembre 2017) :
 Eriocaulon achiton
 Eriocaulon aquaticum
 Eriocaulon aquatile
@@ -1088,7 +1104,7 @@
 Eriocaulon truncatum
 Eriocaulon ulaei
 Eriocaulon xeranthemum
-Selon The Plant List            (24 septembre 2017)[8] :
+Selon The Plant List            (24 septembre 2017) :
 Eriocaulon abyssinicum Hochst.
 Eriocaulon achiton Körn.
 Eriocaulon acutibracteatum W.L.Ma
@@ -1556,7 +1572,7 @@
 Eriocaulon welwitschii Rendle
 Eriocaulon wightianum Mart.
 Eriocaulon wildii S.M.Phillips
-E</t>
+Eriocaulon willdeno</t>
         </is>
       </c>
     </row>
